--- a/documentation/supplementary_material_SSGD_v2.0.xlsx
+++ b/documentation/supplementary_material_SSGD_v2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSGD v2.0 GitHub\Social-Sustainability-Global-Database-v2.0\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB8BD0-8AB3-4091-8693-540136637378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC8047-F852-479A-BA39-E71CF3D5CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C16C0D-AD0A-4156-8D90-1311FF940FDD}"/>
   </bookViews>
@@ -107,57 +107,18 @@
     <t>Unemployment rate</t>
   </si>
   <si>
-    <t>% of ppl that work and are self-employed</t>
-  </si>
-  <si>
-    <t>% of ppl that work and have a contract</t>
-  </si>
-  <si>
-    <t>% of ppl that owns a bank account</t>
-  </si>
-  <si>
     <t>FINDEX</t>
   </si>
   <si>
     <t>Access to Services</t>
   </si>
   <si>
-    <t>% of hhs that have access to water</t>
-  </si>
-  <si>
-    <t>% of hhs that have access to sanitation</t>
-  </si>
-  <si>
-    <t>% of hhs that have access to electricity</t>
-  </si>
-  <si>
-    <t>% of hhs that have access to internet</t>
-  </si>
-  <si>
-    <t>% of ppl that uses the Internet</t>
-  </si>
-  <si>
     <t>AB, AF, ASB</t>
   </si>
   <si>
     <t>Human Capital Services</t>
   </si>
   <si>
-    <t>% of ppl that are attending primary school</t>
-  </si>
-  <si>
-    <t>% of ppl that completed primary education</t>
-  </si>
-  <si>
-    <t>% of ppl that are attending secondary school</t>
-  </si>
-  <si>
-    <t>% of ppl with health insurance</t>
-  </si>
-  <si>
-    <t>% of ppl that have social security</t>
-  </si>
-  <si>
     <t>Women, Business and the Law and Strength of Legal Rights Index</t>
   </si>
   <si>
@@ -176,153 +137,57 @@
     <t>Resilience</t>
   </si>
   <si>
-    <t>% of hhs that own a computer</t>
-  </si>
-  <si>
-    <t>% of hhs that own a cellphone</t>
-  </si>
-  <si>
-    <t>% of hhs that have a TV</t>
-  </si>
-  <si>
-    <t>% of hhs that have a radio</t>
-  </si>
-  <si>
-    <t>% of hhs that have a washing machine</t>
-  </si>
-  <si>
-    <t>% of hhs that have a sewing machine</t>
-  </si>
-  <si>
-    <t>% of hhs that have a motorcycle</t>
-  </si>
-  <si>
-    <t>% of hhs that have a fridge</t>
-  </si>
-  <si>
-    <t>% of hhs that have a car</t>
-  </si>
-  <si>
-    <t>% of hhs that own their land</t>
-  </si>
-  <si>
     <t>Average % of assets in the household</t>
   </si>
   <si>
-    <t>% of ppl that receive government transfers (that is, individual is beneficiary of a state aid program)</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
-    <t>% of ppl that receives remittances</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
-    <t>% of ppl that saves some money</t>
-  </si>
-  <si>
     <t>AB, ASB, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that has gone without enough food to eat in the past year</t>
-  </si>
-  <si>
     <t>AF, LB, WVS</t>
   </si>
   <si>
-    <t>% of hhs that have more than one person working for pay</t>
-  </si>
-  <si>
     <t>Social Cohesion</t>
   </si>
   <si>
-    <t>% of ppl that says that most ppl can be trusted</t>
-  </si>
-  <si>
     <t>AF, ASB, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that would not like to have homosexuals as neighbors</t>
-  </si>
-  <si>
     <t>AF, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says they have confidence in the Government</t>
-  </si>
-  <si>
     <t>AB, AF, ASB, EVS, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says they have confidence in the Police</t>
-  </si>
-  <si>
     <t>AB, AF, ASB, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says they have confidence in the elections</t>
-  </si>
-  <si>
-    <t>% of ppl that says they have confidence in the Justice System</t>
-  </si>
-  <si>
-    <t>% of ppl that feels insecure living in their neighborhood / town / village</t>
-  </si>
-  <si>
-    <t>% of ppl that has often or sometimes felt unsafe from crime in their own homes in the past year</t>
-  </si>
-  <si>
-    <t>% of ppl that was victim of a crime in the past year</t>
-  </si>
-  <si>
     <t>LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says racist behavior is very or quite frequent in their neighborhood</t>
-  </si>
-  <si>
     <t>WVS</t>
   </si>
   <si>
-    <t>% of ppl that voted in the last national elections</t>
-  </si>
-  <si>
     <t>AF, ASB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that has ever attended a demonstration or protest march</t>
-  </si>
-  <si>
     <t>AB, AF, ASB, EVS, WVS</t>
   </si>
   <si>
-    <t>% of ppl that agrees they are free to express what they think</t>
-  </si>
-  <si>
     <t>AB, AF, ASB, LB</t>
   </si>
   <si>
-    <t>% of ppl that agrees they are free to join any organization they like without fear</t>
-  </si>
-  <si>
-    <t>% of ppl that got together with others to try to resolve local problems</t>
-  </si>
-  <si>
     <t>ASB</t>
   </si>
   <si>
-    <t>% of ppl that are active members of organizations</t>
-  </si>
-  <si>
     <t>ASB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that participates in voluntary associations, organizations or community groups</t>
-  </si>
-  <si>
     <t>AB, AF</t>
   </si>
   <si>
@@ -344,22 +209,7 @@
     <t>% of women in the parliament</t>
   </si>
   <si>
-    <t>% of ppl that agrees it is a problem if women earn more than their husbands</t>
-  </si>
-  <si>
-    <t>% of ppl that agrees that when jobs are scarce, men should have more right to a job than women</t>
-  </si>
-  <si>
-    <t>% of women that are the chief earner in their hhs</t>
-  </si>
-  <si>
-    <t>% of ppl that agrees or strongly agrees men make better political leaders than women</t>
-  </si>
-  <si>
     <t>AB, WVS</t>
-  </si>
-  <si>
-    <t>% of women with 25 years or older that finished secondary school</t>
   </si>
   <si>
     <t>% of women who believe a husband is justified in beating his wife</t>
@@ -434,71 +284,11 @@
     <t>Economic and social rights performance score</t>
   </si>
   <si>
-    <r>
-      <t>Life and security are effectively guaranteed</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>WJP</t>
-  </si>
-  <si>
-    <r>
-      <t>Government powers are limited by the judiciary</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
   </si>
   <si>
     <r>
       <t>Equal treatment and absence of discrimination</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Government regulations are applied and enforced without improper influence</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>People can access and afford civil justice</t>
     </r>
     <r>
       <rPr>
@@ -770,9 +560,6 @@
     </r>
   </si>
   <si>
-    <t>Fatalities due to violence</t>
-  </si>
-  <si>
     <t>Intentional homicides (per 100000 people)</t>
   </si>
   <si>
@@ -794,6 +581,219 @@
         <family val="1"/>
       </rPr>
       <t>Voice and Accountability captures perceptions of the extent to which a country's citizens are able to participate in selecting their government, as well as freedom of expression, freedom of association, and a free media.</t>
+    </r>
+  </si>
+  <si>
+    <t>% of population who work and are self-employed</t>
+  </si>
+  <si>
+    <t>% of population that works with a contract</t>
+  </si>
+  <si>
+    <t>% of population who own a bank account</t>
+  </si>
+  <si>
+    <t>% of households that have water</t>
+  </si>
+  <si>
+    <t>% of households that have access to improved sanitation</t>
+  </si>
+  <si>
+    <t>% of households that have electricity</t>
+  </si>
+  <si>
+    <t>% of households that have internet</t>
+  </si>
+  <si>
+    <t>% of population who use the internet</t>
+  </si>
+  <si>
+    <t>% of population attending primary school</t>
+  </si>
+  <si>
+    <t>% of population with completed primary education</t>
+  </si>
+  <si>
+    <t>% of population attending secondary school</t>
+  </si>
+  <si>
+    <t>% of population with health insurance</t>
+  </si>
+  <si>
+    <t>% of population that has social security</t>
+  </si>
+  <si>
+    <t>% of households that have a computer</t>
+  </si>
+  <si>
+    <t>% of households that have a cellphone</t>
+  </si>
+  <si>
+    <t>% of households that have a TV</t>
+  </si>
+  <si>
+    <t>% of households that have a radio</t>
+  </si>
+  <si>
+    <t>% of households that have a washing machine</t>
+  </si>
+  <si>
+    <t>% of households that have a sewing machine</t>
+  </si>
+  <si>
+    <t>% of households that have a motorcycle</t>
+  </si>
+  <si>
+    <t>% of households that have a fridge</t>
+  </si>
+  <si>
+    <t>% of households that have a car</t>
+  </si>
+  <si>
+    <t>% of households that own land</t>
+  </si>
+  <si>
+    <t>% of population who receive government transfers</t>
+  </si>
+  <si>
+    <t>% of population that receives remittances</t>
+  </si>
+  <si>
+    <t>% of population that saves money</t>
+  </si>
+  <si>
+    <t>% of households that have more than one person working for pay</t>
+  </si>
+  <si>
+    <t>% of population who have gone without enough food</t>
+  </si>
+  <si>
+    <t>% of population who think most people can be trusted</t>
+  </si>
+  <si>
+    <t>% of population who do not like homosexuals as neighbors</t>
+  </si>
+  <si>
+    <t>% of population with confidence in government</t>
+  </si>
+  <si>
+    <t>% of population with confidence in elections</t>
+  </si>
+  <si>
+    <t>% of population with confidence in the justice system</t>
+  </si>
+  <si>
+    <t>% of population with confidence in the police</t>
+  </si>
+  <si>
+    <t>% of population who feels insecure living in their neighborhood</t>
+  </si>
+  <si>
+    <t>% of population who feel unsafe from crime at home</t>
+  </si>
+  <si>
+    <t>% of population who were victims of crime</t>
+  </si>
+  <si>
+    <t>% of population who say that racist behavior is frequent in their neighborhood</t>
+  </si>
+  <si>
+    <t>% of population who voted</t>
+  </si>
+  <si>
+    <t>% of population who attended a demonstration</t>
+  </si>
+  <si>
+    <t>% of population who can freely express what they think</t>
+  </si>
+  <si>
+    <t>% of population that agrees they are free to join any organization they like without fear</t>
+  </si>
+  <si>
+    <t>% of population who got together to try to solve problems</t>
+  </si>
+  <si>
+    <t>% of population who are active members in an organization</t>
+  </si>
+  <si>
+    <t>% of population who participate in a voluntary association</t>
+  </si>
+  <si>
+    <t>Number of fatalities due to violence</t>
+  </si>
+  <si>
+    <t>% of population who think it is a problem if women earn more than men</t>
+  </si>
+  <si>
+    <t>% of population who think men have more right to job than women</t>
+  </si>
+  <si>
+    <t>% of women who are the chief earner in their household</t>
+  </si>
+  <si>
+    <t>% of population who think men are better political leaders than women</t>
+  </si>
+  <si>
+    <t>% of 25+ year-old women with at least secondary education</t>
+  </si>
+  <si>
+    <r>
+      <t>Life and security guarantee</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Government powers limited by the judiciary</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Government regulations without improper influence</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Access to civil justice</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
     </r>
   </si>
 </sst>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC474E42-0BBC-495D-BCCF-4D83FD1922B8}">
   <dimension ref="B1:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1698,7 @@
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="14" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>19</v>
@@ -1774,7 +1774,7 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>19</v>
@@ -1850,10 +1850,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
       <c r="D9" s="17" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>20</v>
@@ -1925,10 +1925,10 @@
     <row r="10" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
@@ -2004,7 +2004,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="14" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>19</v>
@@ -2080,7 +2080,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>19</v>
@@ -2156,7 +2156,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="14" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>19</v>
@@ -2232,10 +2232,10 @@
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="20" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>20</v>
@@ -2307,10 +2307,10 @@
     <row r="15" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>19</v>
@@ -2386,7 +2386,7 @@
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="13" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>19</v>
@@ -2462,7 +2462,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="14" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>19</v>
@@ -2538,7 +2538,7 @@
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="13" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>19</v>
@@ -2614,7 +2614,7 @@
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="17" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>19</v>
@@ -2689,16 +2689,16 @@
     <row r="20" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G20" s="12">
         <v>190</v>
@@ -2768,13 +2768,13 @@
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="14" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G21" s="15">
         <v>190</v>
@@ -2844,13 +2844,13 @@
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G22" s="12">
         <v>190</v>
@@ -2920,13 +2920,13 @@
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="14" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G23" s="15">
         <v>190</v>
@@ -2996,13 +2996,13 @@
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="3" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G24" s="12">
         <v>190</v>
@@ -3072,13 +3072,13 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="14" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G25" s="15">
         <v>190</v>
@@ -3148,13 +3148,13 @@
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="3" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G26" s="12">
         <v>190</v>
@@ -3224,13 +3224,13 @@
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="14" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G27" s="15">
         <v>190</v>
@@ -3300,13 +3300,13 @@
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G28" s="12">
         <v>190</v>
@@ -3376,13 +3376,13 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G29" s="18">
         <v>190</v>
@@ -3622,13 +3622,13 @@
     </row>
     <row r="34" spans="2:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>19</v>
@@ -3704,7 +3704,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="13" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>19</v>
@@ -3780,7 +3780,7 @@
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="14" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>19</v>
@@ -3856,7 +3856,7 @@
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="13" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>19</v>
@@ -3932,7 +3932,7 @@
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="14" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>19</v>
@@ -4008,7 +4008,7 @@
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="13" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>19</v>
@@ -4084,7 +4084,7 @@
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="14" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>19</v>
@@ -4160,7 +4160,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="13" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>19</v>
@@ -4236,7 +4236,7 @@
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="14" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>19</v>
@@ -4312,7 +4312,7 @@
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="13" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
@@ -4388,7 +4388,7 @@
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="14" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>19</v>
@@ -4464,10 +4464,10 @@
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="13" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>20</v>
@@ -4540,10 +4540,10 @@
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="14" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>20</v>
@@ -4616,10 +4616,10 @@
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="13" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>20</v>
@@ -4692,10 +4692,10 @@
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="14" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>20</v>
@@ -4768,7 +4768,7 @@
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="20" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>19</v>
@@ -4989,16 +4989,16 @@
     </row>
     <row r="54" spans="2:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>20</v>
@@ -5071,10 +5071,10 @@
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="13" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>20</v>
@@ -5147,10 +5147,10 @@
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="14" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>20</v>
@@ -5223,10 +5223,10 @@
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="13" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>20</v>
@@ -5299,10 +5299,10 @@
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="14" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>20</v>
@@ -5375,10 +5375,10 @@
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="13" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>20</v>
@@ -5451,10 +5451,10 @@
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="14" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>20</v>
@@ -5527,10 +5527,10 @@
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="13" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>20</v>
@@ -5603,10 +5603,10 @@
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="14" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>20</v>
@@ -5679,10 +5679,10 @@
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="13" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>20</v>
@@ -5755,10 +5755,10 @@
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="14" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>20</v>
@@ -5831,10 +5831,10 @@
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
       <c r="D65" s="13" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>20</v>
@@ -5907,10 +5907,10 @@
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="14" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>20</v>
@@ -5983,10 +5983,10 @@
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="13" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>20</v>
@@ -6059,10 +6059,10 @@
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="14" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>20</v>
@@ -6135,10 +6135,10 @@
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="13" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>20</v>
@@ -6211,10 +6211,10 @@
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="14" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>20</v>
@@ -6287,13 +6287,13 @@
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G71" s="12">
         <v>183</v>
@@ -6363,13 +6363,13 @@
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="14" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G72" s="15">
         <v>183</v>
@@ -6439,13 +6439,13 @@
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="22" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G73" s="16">
         <v>153</v>
@@ -6684,19 +6684,19 @@
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G78" s="11">
         <v>193</v>
@@ -6766,10 +6766,10 @@
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
       <c r="D79" s="13" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>20</v>
@@ -6838,14 +6838,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="14" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>20</v>
@@ -6918,10 +6918,10 @@
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
       <c r="D81" s="13" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>20</v>
@@ -6990,14 +6990,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
       <c r="D82" s="14" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>20</v>
@@ -7070,7 +7070,7 @@
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
       <c r="D83" s="13" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>19</v>
@@ -7146,13 +7146,13 @@
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="14" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G84" s="15">
         <v>36</v>
@@ -7221,16 +7221,16 @@
     <row r="85" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B85" s="30"/>
       <c r="C85" s="30" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G85" s="12">
         <v>208</v>
@@ -7300,13 +7300,13 @@
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="27" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G86" s="15">
         <v>208</v>
@@ -7376,13 +7376,13 @@
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="3" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G87" s="12">
         <v>208</v>
@@ -7452,13 +7452,13 @@
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="27" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G88" s="15">
         <v>203</v>
@@ -7528,13 +7528,13 @@
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
       <c r="D89" s="3" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G89" s="12">
         <v>182</v>
@@ -7604,13 +7604,13 @@
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
       <c r="D90" s="27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G90" s="15">
         <v>113</v>
@@ -7680,13 +7680,13 @@
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
       <c r="D91" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G91" s="12">
         <v>113</v>
@@ -7756,13 +7756,13 @@
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
       <c r="D92" s="27" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G92" s="15">
         <v>113</v>
@@ -7832,13 +7832,13 @@
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
       <c r="D93" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G93" s="12">
         <v>113</v>
@@ -7908,13 +7908,13 @@
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
       <c r="D94" s="27" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G94" s="15">
         <v>113</v>
@@ -7984,13 +7984,13 @@
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
       <c r="D95" s="3" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G95" s="12">
         <v>196</v>
@@ -8060,13 +8060,13 @@
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
       <c r="D96" s="27" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G96" s="15">
         <v>167</v>
@@ -8136,13 +8136,13 @@
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
       <c r="D97" s="3" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G97" s="12">
         <v>167</v>
@@ -8212,13 +8212,13 @@
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="27" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G98" s="15">
         <v>167</v>
@@ -8288,13 +8288,13 @@
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
       <c r="D99" s="3" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G99" s="12">
         <v>167</v>
@@ -8364,13 +8364,13 @@
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
       <c r="D100" s="27" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G100" s="15">
         <v>167</v>
@@ -8440,13 +8440,13 @@
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
       <c r="D101" s="26" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G101" s="16">
         <v>167</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="102" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B102" s="23" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="103" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="104" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B104" s="25" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="105" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B105" s="24" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="106" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
@@ -8664,6 +8664,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G75:T75"/>
+    <mergeCell ref="U75:AA76"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="N76:T76"/>
+    <mergeCell ref="B78:B101"/>
+    <mergeCell ref="C78:C84"/>
+    <mergeCell ref="C85:C101"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="U51:AA52"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="B54:B73"/>
+    <mergeCell ref="C54:C73"/>
+    <mergeCell ref="G31:T31"/>
+    <mergeCell ref="U31:AA32"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="C34:C49"/>
     <mergeCell ref="G2:T2"/>
     <mergeCell ref="U2:AA3"/>
     <mergeCell ref="G3:M3"/>
@@ -8673,25 +8692,6 @@
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C20:C29"/>
-    <mergeCell ref="G31:T31"/>
-    <mergeCell ref="U31:AA32"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="C34:C49"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="U51:AA52"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="B54:B73"/>
-    <mergeCell ref="C54:C73"/>
-    <mergeCell ref="G75:T75"/>
-    <mergeCell ref="U75:AA76"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="N76:T76"/>
-    <mergeCell ref="B78:B101"/>
-    <mergeCell ref="C78:C84"/>
-    <mergeCell ref="C85:C101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
